--- a/2018_2025_Summary.xlsx
+++ b/2018_2025_Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61c36765f8dc212b/Desktop/ExpoFinal Report/map_site/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61c36765f8dc212b/Desktop/ExpoFinal Report/map_site/All_Schools_Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08032BCB-6B82-40FA-B728-4B72E7FC2EBF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{516E3922-FADF-4802-A167-0180A7716E28}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
+    <workbookView xWindow="3218" yWindow="3218" windowWidth="16200" windowHeight="9307" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -1102,7 +1102,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9F093B30-6DF7-44F8-BE8D-86B9AACE582D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1433,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA1BD43-D29D-4867-8EBF-49CAA790C4F9}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F265"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1901,10 +1903,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="20">
-        <v>18.226527000000001</v>
+        <v>18.556077999999999</v>
       </c>
       <c r="F23" s="21">
-        <v>-33.999110999999999</v>
+        <v>-33.897466000000001</v>
       </c>
       <c r="G23" s="38"/>
     </row>

--- a/2018_2025_Summary.xlsx
+++ b/2018_2025_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61c36765f8dc212b/Desktop/ExpoFinal Report/map_site/All_Schools_Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{516E3922-FADF-4802-A167-0180A7716E28}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE3B30A-0398-4E04-ACEC-CE7EB103E915}"/>
   <bookViews>
-    <workbookView xWindow="3218" yWindow="3218" windowWidth="16200" windowHeight="9307" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1114,6 +1114,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1435,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA1BD43-D29D-4867-8EBF-49CAA790C4F9}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="K230" sqref="K230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6180,10 +6184,10 @@
         <v>8</v>
       </c>
       <c r="E233" s="19">
-        <v>23.435328999999999</v>
+        <v>18.172239000000001</v>
       </c>
       <c r="F233" s="12">
-        <v>-29.842618000000002</v>
+        <v>-33.269699000000003</v>
       </c>
       <c r="G233" s="38"/>
     </row>

--- a/2018_2025_Summary.xlsx
+++ b/2018_2025_Summary.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE3B30A-0398-4E04-ACEC-CE7EB103E915}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9308" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA1BD43-D29D-4867-8EBF-49CAA790C4F9}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="K230" sqref="K230"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/2018_2025_Summary.xlsx
+++ b/2018_2025_Summary.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE3B30A-0398-4E04-ACEC-CE7EB103E915}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9308" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="16199" windowHeight="9307" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>

--- a/2018_2025_Summary.xlsx
+++ b/2018_2025_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61c36765f8dc212b/Desktop/ExpoFinal Report/map_site/All_Schools_Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE3B30A-0398-4E04-ACEC-CE7EB103E915}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{90265CFE-C118-4322-A6D5-4B6675F4C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5D6EA4-A621-43F2-B3D1-E035605042E0}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="16199" windowHeight="9307" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{F387CA26-9EC5-48FA-B22C-D720BB427D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="286">
   <si>
     <t>REGION</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>18.992289</t>
+  </si>
+  <si>
+    <t>-30.01607, 17.572899</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
   <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="G233" sqref="G233"/>
+      <selection activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6184,12 +6187,14 @@
         <v>8</v>
       </c>
       <c r="E233" s="19">
-        <v>18.172239000000001</v>
+        <v>17.572899</v>
       </c>
       <c r="F233" s="12">
-        <v>-33.269699000000003</v>
-      </c>
-      <c r="G233" s="38"/>
+        <v>-30.016069999999999</v>
+      </c>
+      <c r="G233" s="38" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="15" t="s">
